--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFB72E-5FC4-4E9A-AB4E-84E96B78A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68F335D-F46A-4DA3-A093-0BCF63FECE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="図面登録依頼画面" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2125,6 +2125,29 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2356,7 +2379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2424,6 +2447,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2465,9 +2497,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2758,41 +2787,49 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="17" t="s">
         <v>111</v>
       </c>
@@ -2802,44 +2839,72 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="31" t="s">
+      <c r="N2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O5" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="23">
         <v>45553</v>
       </c>
       <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="26" t="s">
+      <c r="N3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="33" t="s">
+      <c r="N4" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：56／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>110</v>
       </c>
@@ -2849,14 +2914,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -2876,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2905,7 +2970,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2934,7 +2999,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2959,7 +3024,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2984,7 +3049,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -3009,7 +3074,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="200.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" ht="204.75" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -3034,7 +3099,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -3059,7 +3124,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -3084,7 +3149,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -3109,7 +3174,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -3140,7 +3205,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -3171,7 +3236,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -3200,7 +3265,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -3231,7 +3296,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -3260,7 +3325,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -3287,7 +3352,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -3314,7 +3379,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -3345,7 +3410,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -3372,7 +3437,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -3401,7 +3466,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -3428,7 +3493,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -3455,7 +3520,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -3488,7 +3553,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -3511,7 +3576,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -3534,7 +3599,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -3557,7 +3622,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -3586,7 +3651,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -3609,7 +3674,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -3632,7 +3697,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -3655,7 +3720,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -3686,7 +3751,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -3709,7 +3774,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -3732,7 +3797,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -3755,7 +3820,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -3784,7 +3849,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -3807,7 +3872,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>36</v>
       </c>
@@ -3830,7 +3895,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -3853,7 +3918,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>38</v>
       </c>
@@ -3882,7 +3947,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -3905,7 +3970,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -3928,7 +3993,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>41</v>
       </c>
@@ -3951,7 +4016,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -3980,7 +4045,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43</v>
       </c>
@@ -4003,7 +4068,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -4026,7 +4091,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>45</v>
       </c>
@@ -4049,7 +4114,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>46</v>
       </c>
@@ -4078,7 +4143,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>47</v>
       </c>
@@ -4101,7 +4166,7 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>48</v>
       </c>
@@ -4124,7 +4189,7 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>49</v>
       </c>
@@ -4147,7 +4212,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>50</v>
       </c>
@@ -4176,7 +4241,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>51</v>
       </c>
@@ -4199,7 +4264,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="1:17" ht="354.9" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:17" ht="362.25" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>52</v>
       </c>
@@ -4222,7 +4287,7 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>53</v>
       </c>
@@ -4245,7 +4310,7 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>54</v>
       </c>
@@ -4272,7 +4337,7 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>55</v>
       </c>
@@ -4297,7 +4362,7 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>56</v>
       </c>
@@ -4340,6 +4405,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -4562,34 +4647,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0739C806-9E38-4346-8FFC-E1E209DB7210}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0739C806-9E38-4346-8FFC-E1E209DB7210}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228DE696-FC62-4538-83D7-07337776EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8E5E0-8138-47D2-989B-CCA697C13E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,23 +44,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="260">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -6044,13 +6033,100 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>アクセスログ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログ
+※ファイルパスは、
+「D:\Tomcat8\webapps\DRASAP\WEB-INF\classes\log4j.properties」内の
+「log4j.appender.DRFILE_A.File=D:\\Tomcat8\\DRASAP\\logs\\access.log」で定義されている</t>
+    <rPh sb="77" eb="78">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>依頼しました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と画面表示された依頼について</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログに図面登録依頼があったことを示す以下のログが出力されていること
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],04</t>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -6189,7 +6265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6223,6 +6299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6367,7 +6449,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -6441,6 +6523,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6483,35 +6590,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -44505,10 +44596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -44529,13 +44620,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="17"/>
       <c r="N1" s="23" t="s">
         <v>111</v>
@@ -44547,10 +44638,10 @@
       <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="16" t="s">
         <v>109</v>
       </c>
@@ -44569,10 +44660,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5" t="s">
         <v>110</v>
       </c>
@@ -44592,13 +44683,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="17"/>
       <c r="N4" s="23" t="s">
         <v>114</v>
@@ -44609,20 +44700,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="19"/>
       <c r="N5" s="23" t="s">
         <v>115</v>
       </c>
       <c r="O5" s="2" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：0／実施済：56</v>
+        <v>未実施：1／実施済：56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -44635,14 +44726,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -44663,7 +44754,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="40">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -44698,7 +44789,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="40">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
       <c r="B8" s="10"/>
@@ -44733,7 +44824,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="40">
+      <c r="A9" s="26">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
@@ -44764,7 +44855,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A10" s="40">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
@@ -44795,7 +44886,7 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="40">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
       <c r="B11" s="9"/>
@@ -44826,7 +44917,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" ht="204.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="40">
+      <c r="A12" s="26">
         <v>6</v>
       </c>
       <c r="B12" s="10"/>
@@ -44857,7 +44948,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="40">
+      <c r="A13" s="26">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -44888,7 +44979,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="40">
+      <c r="A14" s="26">
         <v>8</v>
       </c>
       <c r="B14" s="10"/>
@@ -44919,7 +45010,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="40">
+      <c r="A15" s="26">
         <v>9</v>
       </c>
       <c r="B15" s="10"/>
@@ -44950,7 +45041,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="40">
+      <c r="A16" s="26">
         <v>10</v>
       </c>
       <c r="B16" s="10"/>
@@ -44987,7 +45078,7 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="40">
+      <c r="A17" s="26">
         <v>11</v>
       </c>
       <c r="B17" s="10"/>
@@ -45024,7 +45115,7 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="40">
+      <c r="A18" s="26">
         <v>12</v>
       </c>
       <c r="B18" s="10"/>
@@ -45059,7 +45150,7 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="40">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
       <c r="B19" s="10"/>
@@ -45096,7 +45187,7 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="40">
+      <c r="A20" s="26">
         <v>14</v>
       </c>
       <c r="B20" s="10"/>
@@ -45131,7 +45222,7 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="40">
+      <c r="A21" s="26">
         <v>15</v>
       </c>
       <c r="B21" s="10"/>
@@ -45164,7 +45255,7 @@
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="40">
+      <c r="A22" s="26">
         <v>16</v>
       </c>
       <c r="B22" s="10"/>
@@ -45197,7 +45288,7 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="40">
+      <c r="A23" s="26">
         <v>17</v>
       </c>
       <c r="B23" s="10"/>
@@ -45234,7 +45325,7 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="40">
+      <c r="A24" s="26">
         <v>18</v>
       </c>
       <c r="B24" s="10"/>
@@ -45267,7 +45358,7 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="40">
+      <c r="A25" s="26">
         <v>19</v>
       </c>
       <c r="B25" s="10"/>
@@ -45302,7 +45393,7 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="40">
+      <c r="A26" s="26">
         <v>20</v>
       </c>
       <c r="B26" s="10"/>
@@ -45335,7 +45426,7 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="40">
+      <c r="A27" s="26">
         <v>21</v>
       </c>
       <c r="B27" s="10"/>
@@ -45368,7 +45459,7 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="40">
+      <c r="A28" s="26">
         <v>22</v>
       </c>
       <c r="B28" s="10"/>
@@ -45407,7 +45498,7 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A29" s="40">
+      <c r="A29" s="26">
         <v>23</v>
       </c>
       <c r="B29" s="10"/>
@@ -45436,7 +45527,7 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A30" s="40">
+      <c r="A30" s="26">
         <v>24</v>
       </c>
       <c r="B30" s="10"/>
@@ -45465,7 +45556,7 @@
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="40">
+      <c r="A31" s="26">
         <v>25</v>
       </c>
       <c r="B31" s="10"/>
@@ -45494,7 +45585,7 @@
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="40">
+      <c r="A32" s="26">
         <v>26</v>
       </c>
       <c r="B32" s="10"/>
@@ -45529,7 +45620,7 @@
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A33" s="40">
+      <c r="A33" s="26">
         <v>27</v>
       </c>
       <c r="B33" s="10"/>
@@ -45558,7 +45649,7 @@
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A34" s="40">
+      <c r="A34" s="26">
         <v>28</v>
       </c>
       <c r="B34" s="10"/>
@@ -45587,7 +45678,7 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="40">
+      <c r="A35" s="26">
         <v>29</v>
       </c>
       <c r="B35" s="10"/>
@@ -45616,7 +45707,7 @@
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="40">
+      <c r="A36" s="26">
         <v>30</v>
       </c>
       <c r="B36" s="10"/>
@@ -45653,7 +45744,7 @@
       <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A37" s="40">
+      <c r="A37" s="26">
         <v>31</v>
       </c>
       <c r="B37" s="10"/>
@@ -45682,7 +45773,7 @@
       <c r="Q37" s="14"/>
     </row>
     <row r="38" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A38" s="40">
+      <c r="A38" s="26">
         <v>32</v>
       </c>
       <c r="B38" s="10"/>
@@ -45711,7 +45802,7 @@
       <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="40">
+      <c r="A39" s="26">
         <v>33</v>
       </c>
       <c r="B39" s="10"/>
@@ -45740,7 +45831,7 @@
       <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="40">
+      <c r="A40" s="26">
         <v>34</v>
       </c>
       <c r="B40" s="10"/>
@@ -45775,7 +45866,7 @@
       <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A41" s="40">
+      <c r="A41" s="26">
         <v>35</v>
       </c>
       <c r="B41" s="10"/>
@@ -45804,7 +45895,7 @@
       <c r="Q41" s="14"/>
     </row>
     <row r="42" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A42" s="40">
+      <c r="A42" s="26">
         <v>36</v>
       </c>
       <c r="B42" s="10"/>
@@ -45833,7 +45924,7 @@
       <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17" ht="126" x14ac:dyDescent="0.4">
-      <c r="A43" s="40">
+      <c r="A43" s="26">
         <v>37</v>
       </c>
       <c r="B43" s="10"/>
@@ -45862,7 +45953,7 @@
       <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="40">
+      <c r="A44" s="26">
         <v>38</v>
       </c>
       <c r="B44" s="10"/>
@@ -45897,7 +45988,7 @@
       <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A45" s="40">
+      <c r="A45" s="26">
         <v>39</v>
       </c>
       <c r="B45" s="10"/>
@@ -45926,7 +46017,7 @@
       <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A46" s="40">
+      <c r="A46" s="26">
         <v>40</v>
       </c>
       <c r="B46" s="10"/>
@@ -45955,7 +46046,7 @@
       <c r="Q46" s="14"/>
     </row>
     <row r="47" spans="1:17" ht="126" x14ac:dyDescent="0.4">
-      <c r="A47" s="40">
+      <c r="A47" s="26">
         <v>41</v>
       </c>
       <c r="B47" s="10"/>
@@ -45984,7 +46075,7 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="40">
+      <c r="A48" s="26">
         <v>42</v>
       </c>
       <c r="B48" s="10"/>
@@ -46019,7 +46110,7 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A49" s="40">
+      <c r="A49" s="26">
         <v>43</v>
       </c>
       <c r="B49" s="10"/>
@@ -46048,7 +46139,7 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A50" s="40">
+      <c r="A50" s="26">
         <v>44</v>
       </c>
       <c r="B50" s="10"/>
@@ -46077,7 +46168,7 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="40">
+      <c r="A51" s="26">
         <v>45</v>
       </c>
       <c r="B51" s="10"/>
@@ -46106,7 +46197,7 @@
       <c r="Q51" s="14"/>
     </row>
     <row r="52" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A52" s="40">
+      <c r="A52" s="26">
         <v>46</v>
       </c>
       <c r="B52" s="10"/>
@@ -46141,7 +46232,7 @@
       <c r="Q52" s="14"/>
     </row>
     <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A53" s="40">
+      <c r="A53" s="26">
         <v>47</v>
       </c>
       <c r="B53" s="10"/>
@@ -46170,7 +46261,7 @@
       <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A54" s="40">
+      <c r="A54" s="26">
         <v>48</v>
       </c>
       <c r="B54" s="10"/>
@@ -46199,7 +46290,7 @@
       <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17" ht="252" x14ac:dyDescent="0.4">
-      <c r="A55" s="40">
+      <c r="A55" s="26">
         <v>49</v>
       </c>
       <c r="B55" s="10"/>
@@ -46228,7 +46319,7 @@
       <c r="Q55" s="14"/>
     </row>
     <row r="56" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="40">
+      <c r="A56" s="26">
         <v>50</v>
       </c>
       <c r="B56" s="10"/>
@@ -46263,7 +46354,7 @@
       <c r="Q56" s="14"/>
     </row>
     <row r="57" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A57" s="40">
+      <c r="A57" s="26">
         <v>51</v>
       </c>
       <c r="B57" s="10"/>
@@ -46292,7 +46383,7 @@
       <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="1:17" ht="362.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="40">
+      <c r="A58" s="26">
         <v>52</v>
       </c>
       <c r="B58" s="10"/>
@@ -46321,7 +46412,7 @@
       <c r="Q58" s="14"/>
     </row>
     <row r="59" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
-      <c r="A59" s="40">
+      <c r="A59" s="26">
         <v>53</v>
       </c>
       <c r="B59" s="10"/>
@@ -46350,7 +46441,7 @@
       <c r="Q59" s="14"/>
     </row>
     <row r="60" spans="1:17" ht="189" x14ac:dyDescent="0.4">
-      <c r="A60" s="40">
+      <c r="A60" s="26">
         <v>54</v>
       </c>
       <c r="B60" s="10"/>
@@ -46383,7 +46474,7 @@
       <c r="Q60" s="14"/>
     </row>
     <row r="61" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="40">
+      <c r="A61" s="26">
         <v>55</v>
       </c>
       <c r="B61" s="10"/>
@@ -46414,7 +46505,7 @@
       <c r="Q61" s="14"/>
     </row>
     <row r="62" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A62" s="40">
+      <c r="A62" s="26">
         <v>56</v>
       </c>
       <c r="B62" s="10"/>
@@ -46445,6 +46536,36 @@
         <v>255</v>
       </c>
       <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="A63" s="48">
+        <f t="shared" ref="A63" si="1">ROW()-6</f>
+        <v>57</v>
+      </c>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="N63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -46506,10 +46627,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46529,10 +46650,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46552,10 +46673,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46575,10 +46696,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46598,10 +46719,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46621,10 +46742,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46644,514 +46765,514 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="I101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.421782407408</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="46">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="32">
         <v>45562</v>
       </c>
-      <c r="T101" s="43" t="s">
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AK101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AK101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.424641203703</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="46">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="32">
         <v>45562</v>
       </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="43" t="s">
+      <c r="AH105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -47171,514 +47292,514 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="I101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.427812499998</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T101" s="43" t="s">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="AK101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AK101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.426585648151</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="F105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="AH105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AH105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -47698,514 +47819,514 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="I101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.430636574078</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="46">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="32">
         <v>45562</v>
       </c>
-      <c r="T101" s="43" t="s">
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="AK101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AK101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.433622685188</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="46">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="32">
         <v>45562</v>
       </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="43" t="s">
+      <c r="AH105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -48225,514 +48346,514 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="I101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.432395833333</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="46">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="32">
         <v>45562</v>
       </c>
-      <c r="T101" s="43" t="s">
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AK101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AK101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.434791666667</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="46">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="32">
         <v>45562</v>
       </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="43" t="s">
+      <c r="AH105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -48752,10 +48873,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -48775,738 +48896,738 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I101" s="43" t="s">
+      <c r="I101" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.438611111109</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T101" s="43" t="s">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="AK101" s="43" t="s">
+      <c r="AK101" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.437002314815</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="F105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="AH105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AH105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD106" s="43" t="s">
+      <c r="G106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AE106" s="43" t="s">
+      <c r="AE106" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AF106" s="43" t="s">
+      <c r="AF106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG106" s="43" t="s">
+      <c r="AG106" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH106" s="43" t="s">
+      <c r="AH106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL106" s="44" t="s">
+      <c r="AI106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL106" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD107" s="43" t="s">
+      <c r="F107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AE107" s="43" t="s">
+      <c r="AE107" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AF107" s="43" t="s">
+      <c r="AF107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG107" s="43" t="s">
+      <c r="AG107" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="AH107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL107" s="44" t="s">
+      <c r="AH107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL107" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD108" s="43" t="s">
+      <c r="F108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AE108" s="43" t="s">
+      <c r="AE108" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AF108" s="43" t="s">
+      <c r="AF108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG108" s="43" t="s">
+      <c r="AG108" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="AH108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL108" s="44" t="s">
+      <c r="AH108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL108" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD109" s="43" t="s">
+      <c r="F109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="AE109" s="43" t="s">
+      <c r="AE109" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="AF109" s="43" t="s">
+      <c r="AF109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG109" s="43" t="s">
+      <c r="AG109" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AH109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL109" s="44" t="s">
+      <c r="AH109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL109" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -49526,743 +49647,743 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I101" s="43" t="s">
+      <c r="I101" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.441134259258</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T101" s="43" t="s">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="AK101" s="43" t="s">
+      <c r="AK101" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.442141203705</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="F105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="AH105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AH105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="F106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD106" s="43" t="s">
+      <c r="F106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AE106" s="43" t="s">
+      <c r="AE106" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AF106" s="43" t="s">
+      <c r="AF106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG106" s="43" t="s">
+      <c r="AG106" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AH106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL106" s="44" t="s">
+      <c r="AH106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL106" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD107" s="43" t="s">
+      <c r="F107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AE107" s="43" t="s">
+      <c r="AE107" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AF107" s="43" t="s">
+      <c r="AF107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG107" s="43" t="s">
+      <c r="AG107" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AH107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL107" s="44" t="s">
+      <c r="AH107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL107" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD108" s="43" t="s">
+      <c r="F108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AE108" s="43" t="s">
+      <c r="AE108" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AF108" s="43" t="s">
+      <c r="AF108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG108" s="43" t="s">
+      <c r="AG108" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AH108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL108" s="44" t="s">
+      <c r="AH108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL108" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="F109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD109" s="43" t="s">
+      <c r="F109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="AE109" s="43" t="s">
+      <c r="AE109" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AF109" s="43" t="s">
+      <c r="AF109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG109" s="43" t="s">
+      <c r="AG109" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="AH109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL109" s="44" t="s">
+      <c r="AH109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL109" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="O110" s="47"/>
+      <c r="O110" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -50280,745 +50401,745 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I101" s="43" t="s">
+      <c r="I101" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.446111111109</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T101" s="43" t="s">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="AK101" s="43" t="s">
+      <c r="AK101" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.444305555553</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" s="27" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="104" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F104" s="42" t="s">
+      <c r="F104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="42" t="s">
+      <c r="I104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD104" s="42" t="s">
+      <c r="AD104" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE104" s="42" t="s">
+      <c r="AE104" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF104" s="42" t="s">
+      <c r="AF104" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG104" s="42" t="s">
+      <c r="AG104" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH104" s="42" t="s">
+      <c r="AH104" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI104" s="42" t="s">
+      <c r="AI104" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AJ104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK104" s="42" t="s">
+      <c r="AK104" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AL104" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="43" t="s">
+      <c r="AH105" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL105" s="44" t="s">
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="F106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD106" s="43" t="s">
+      <c r="F106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD106" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AE106" s="43" t="s">
+      <c r="AE106" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AF106" s="43" t="s">
+      <c r="AF106" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG106" s="43" t="s">
+      <c r="AG106" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AH106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK106" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL106" s="44" t="s">
+      <c r="AH106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK106" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL106" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD107" s="43" t="s">
+      <c r="F107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD107" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AE107" s="43" t="s">
+      <c r="AE107" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AF107" s="43" t="s">
+      <c r="AF107" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG107" s="43" t="s">
+      <c r="AG107" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AH107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL107" s="44" t="s">
+      <c r="AH107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK107" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL107" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD108" s="43" t="s">
+      <c r="F108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD108" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AE108" s="43" t="s">
+      <c r="AE108" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AF108" s="43" t="s">
+      <c r="AF108" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG108" s="43" t="s">
+      <c r="AG108" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AH108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK108" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL108" s="44" t="s">
+      <c r="AH108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK108" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL108" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P109" s="47"/>
-      <c r="S109" s="47"/>
-      <c r="AD109" s="43" t="s">
+      <c r="F109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="AD109" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="AE109" s="43" t="s">
+      <c r="AE109" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AF109" s="43" t="s">
+      <c r="AF109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG109" s="43" t="s">
+      <c r="AG109" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AH109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL109" s="44" t="s">
+      <c r="AH109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL109" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="O110" s="47"/>
+      <c r="O110" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -51036,1463 +51157,1463 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AD88" s="41" t="s">
+      <c r="AD88" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="36" x14ac:dyDescent="0.4">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AD89" s="42" t="s">
+      <c r="AD89" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AE89" s="42" t="s">
+      <c r="AE89" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AG89" s="42" t="s">
+      <c r="AG89" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH89" s="42" t="s">
+      <c r="AH89" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="90" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="43" t="s">
+      <c r="D90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD90" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AE90" s="43" t="s">
+      <c r="AE90" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG90" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH90" s="44" t="s">
+      <c r="AF90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH90" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" s="27" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="I100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K100" s="42" t="s">
+      <c r="K100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L100" s="42" t="s">
+      <c r="L100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="42" t="s">
+      <c r="M100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="42" t="s">
+      <c r="N100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O100" s="42" t="s">
+      <c r="O100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P100" s="42" t="s">
+      <c r="P100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="42" t="s">
+      <c r="Q100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="R100" s="42" t="s">
+      <c r="R100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="S100" s="42" t="s">
+      <c r="S100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="T100" s="42" t="s">
+      <c r="T100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="U100" s="42" t="s">
+      <c r="U100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="V100" s="42" t="s">
+      <c r="V100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="W100" s="42" t="s">
+      <c r="W100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="X100" s="42" t="s">
+      <c r="X100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y100" s="42" t="s">
+      <c r="Y100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="Z100" s="42" t="s">
+      <c r="Z100" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AD100" s="42" t="s">
+      <c r="AD100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AE100" s="42" t="s">
+      <c r="AE100" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AF100" s="42" t="s">
+      <c r="AF100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG100" s="42" t="s">
+      <c r="AG100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AH100" s="42" t="s">
+      <c r="AH100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AI100" s="42" t="s">
+      <c r="AI100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AJ100" s="42" t="s">
+      <c r="AJ100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AK100" s="42" t="s">
+      <c r="AK100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AL100" s="42" t="s">
+      <c r="AL100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AM100" s="42" t="s">
+      <c r="AM100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AN100" s="42" t="s">
+      <c r="AN100" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AO100" s="42" t="s">
+      <c r="AO100" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AP100" s="42" t="s">
+      <c r="AP100" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AQ100" s="42" t="s">
+      <c r="AQ100" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AR100" s="42" t="s">
+      <c r="AR100" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS100" s="42" t="s">
+      <c r="AS100" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AT100" s="42" t="s">
+      <c r="AT100" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AU100" s="42" t="s">
+      <c r="AU100" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AV100" s="42" t="s">
+      <c r="AV100" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AW100" s="42" t="s">
+      <c r="AW100" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="AX100" s="42" t="s">
+      <c r="AX100" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AY100" s="42" t="s">
+      <c r="AY100" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ100" s="42" t="s">
+      <c r="AZ100" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="BA100" s="42" t="s">
+      <c r="BA100" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="BB100" s="42" t="s">
+      <c r="BB100" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K101" s="45">
+      <c r="I101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" s="31">
         <v>45562.455231481479</v>
       </c>
-      <c r="L101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M101" s="43" t="s">
+      <c r="L101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q101" s="43" t="s">
+      <c r="N101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S101" s="46">
+      <c r="R101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S101" s="32">
         <v>45562</v>
       </c>
-      <c r="T101" s="43" t="s">
+      <c r="T101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V101" s="43" t="s">
+      <c r="U101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W101" s="43" t="s">
+      <c r="W101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X101" s="43" t="s">
+      <c r="X101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD101" s="43" t="s">
+      <c r="Y101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD101" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AE101" s="43" t="s">
+      <c r="AE101" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF101" s="43" t="s">
+      <c r="AF101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG101" s="43" t="s">
+      <c r="AG101" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ101" s="43" t="s">
+      <c r="AH101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AK101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM101" s="45">
+      <c r="AK101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="31">
         <v>45562.457476851851</v>
       </c>
-      <c r="AN101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO101" s="43" t="s">
+      <c r="AN101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS101" s="43" t="s">
+      <c r="AP101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS101" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AT101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU101" s="46">
+      <c r="AT101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU101" s="32">
         <v>45562</v>
       </c>
-      <c r="AV101" s="43" t="s">
+      <c r="AV101" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX101" s="43" t="s">
+      <c r="AW101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX101" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY101" s="43" t="s">
+      <c r="AY101" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ101" s="43" t="s">
+      <c r="AZ101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA101" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB101" s="44" t="s">
+      <c r="BA101" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" s="43" t="s">
+      <c r="F102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="I102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K102" s="45">
+      <c r="I102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K102" s="31">
         <v>45562.455231481479</v>
       </c>
-      <c r="L102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M102" s="43" t="s">
+      <c r="L102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q102" s="43" t="s">
+      <c r="N102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T102" s="43" t="s">
+      <c r="R102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V102" s="43" t="s">
+      <c r="U102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V102" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W102" s="43" t="s">
+      <c r="W102" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X102" s="43" t="s">
+      <c r="X102" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD102" s="43" t="s">
+      <c r="Y102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD102" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AE102" s="43" t="s">
+      <c r="AE102" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF102" s="43" t="s">
+      <c r="AF102" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="AG102" s="43" t="s">
+      <c r="AG102" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ102" s="43" t="s">
+      <c r="AH102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ102" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="AK102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM102" s="45">
+      <c r="AK102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM102" s="31">
         <v>45562.457476851851</v>
       </c>
-      <c r="AN102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO102" s="43" t="s">
+      <c r="AN102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS102" s="43" t="s">
+      <c r="AP102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV102" s="43" t="s">
+      <c r="AT102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV102" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX102" s="43" t="s">
+      <c r="AW102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX102" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY102" s="43" t="s">
+      <c r="AY102" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ102" s="43" t="s">
+      <c r="AZ102" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA102" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB102" s="44" t="s">
+      <c r="BA102" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB102" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="E103" s="43" t="s">
+      <c r="E103" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H103" s="43" t="s">
+      <c r="F103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="I103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K103" s="45">
+      <c r="I103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K103" s="31">
         <v>45562.455231481479</v>
       </c>
-      <c r="L103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M103" s="43" t="s">
+      <c r="L103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q103" s="43" t="s">
+      <c r="N103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T103" s="43" t="s">
+      <c r="R103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V103" s="43" t="s">
+      <c r="U103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V103" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W103" s="43" t="s">
+      <c r="W103" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X103" s="43" t="s">
+      <c r="X103" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD103" s="43" t="s">
+      <c r="Y103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD103" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AE103" s="43" t="s">
+      <c r="AE103" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF103" s="43" t="s">
+      <c r="AF103" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AG103" s="43" t="s">
+      <c r="AG103" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ103" s="43" t="s">
+      <c r="AH103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ103" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="AK103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM103" s="45">
+      <c r="AK103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM103" s="31">
         <v>45562.457476851851</v>
       </c>
-      <c r="AN103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO103" s="43" t="s">
+      <c r="AN103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS103" s="43" t="s">
+      <c r="AP103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV103" s="43" t="s">
+      <c r="AT103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV103" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX103" s="43" t="s">
+      <c r="AW103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX103" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY103" s="43" t="s">
+      <c r="AY103" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ103" s="43" t="s">
+      <c r="AZ103" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA103" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB103" s="44" t="s">
+      <c r="BA103" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB103" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C104" s="43" t="s">
+      <c r="C104" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H104" s="43" t="s">
+      <c r="F104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="I104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K104" s="45">
+      <c r="I104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K104" s="31">
         <v>45562.455231481479</v>
       </c>
-      <c r="L104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M104" s="43" t="s">
+      <c r="L104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q104" s="43" t="s">
+      <c r="N104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T104" s="43" t="s">
+      <c r="R104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V104" s="43" t="s">
+      <c r="U104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V104" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W104" s="43" t="s">
+      <c r="W104" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X104" s="43" t="s">
+      <c r="X104" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC104" s="47"/>
-      <c r="AD104" s="43" t="s">
+      <c r="Y104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC104" s="33"/>
+      <c r="AD104" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AE104" s="43" t="s">
+      <c r="AE104" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF104" s="43" t="s">
+      <c r="AF104" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="AG104" s="43" t="s">
+      <c r="AG104" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ104" s="43" t="s">
+      <c r="AH104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ104" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AK104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM104" s="45">
+      <c r="AK104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM104" s="31">
         <v>45562.457476851851</v>
       </c>
-      <c r="AN104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO104" s="43" t="s">
+      <c r="AN104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS104" s="43" t="s">
+      <c r="AP104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV104" s="43" t="s">
+      <c r="AT104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV104" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX104" s="43" t="s">
+      <c r="AW104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX104" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY104" s="43" t="s">
+      <c r="AY104" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ104" s="43" t="s">
+      <c r="AZ104" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA104" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB104" s="44" t="s">
+      <c r="BA104" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB104" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" s="43" t="s">
+      <c r="F105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="I105" s="43" t="s">
+      <c r="I105" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="J105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K105" s="45">
+      <c r="J105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="31">
         <v>45562.455231481479</v>
       </c>
-      <c r="L105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M105" s="43" t="s">
+      <c r="L105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="M105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="N105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q105" s="43" t="s">
+      <c r="N105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="R105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T105" s="43" t="s">
+      <c r="R105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="U105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V105" s="43" t="s">
+      <c r="U105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="W105" s="43" t="s">
+      <c r="W105" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="X105" s="43" t="s">
+      <c r="X105" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="Y105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD105" s="43" t="s">
+      <c r="Y105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD105" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AE105" s="43" t="s">
+      <c r="AE105" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AF105" s="43" t="s">
+      <c r="AF105" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AG105" s="43" t="s">
+      <c r="AG105" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AH105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ105" s="43" t="s">
+      <c r="AH105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ105" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="AK105" s="43" t="s">
+      <c r="AK105" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="AL105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM105" s="45">
+      <c r="AL105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM105" s="31">
         <v>45562.457476851851</v>
       </c>
-      <c r="AN105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO105" s="43" t="s">
+      <c r="AN105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AP105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS105" s="43" t="s">
+      <c r="AP105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AT105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV105" s="43" t="s">
+      <c r="AT105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AW105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX105" s="43" t="s">
+      <c r="AW105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AY105" s="43" t="s">
+      <c r="AY105" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AZ105" s="43" t="s">
+      <c r="AZ105" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="BA105" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB105" s="44" t="s">
+      <c r="BA105" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB105" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="H106" s="47"/>
-      <c r="J106" s="47"/>
+      <c r="H106" s="33"/>
+      <c r="J106" s="33"/>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="AD107" s="41" t="s">
+      <c r="AD107" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="108" spans="2:54" ht="54" x14ac:dyDescent="0.4">
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F108" s="42" t="s">
+      <c r="F108" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="G108" s="42" t="s">
+      <c r="G108" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H108" s="42" t="s">
+      <c r="H108" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I108" s="42" t="s">
+      <c r="I108" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J108" s="42" t="s">
+      <c r="J108" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AD108" s="42" t="s">
+      <c r="AD108" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AE108" s="42" t="s">
+      <c r="AE108" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AF108" s="42" t="s">
+      <c r="AF108" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AG108" s="42" t="s">
+      <c r="AG108" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AH108" s="42" t="s">
+      <c r="AH108" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AI108" s="42" t="s">
+      <c r="AI108" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AJ108" s="42" t="s">
+      <c r="AJ108" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AK108" s="42" t="s">
+      <c r="AK108" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="AL108" s="42" t="s">
+      <c r="AL108" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD109" s="43" t="s">
+      <c r="G109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD109" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE109" s="43" t="s">
+      <c r="AE109" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF109" s="43" t="s">
+      <c r="AF109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AG109" s="43" t="s">
+      <c r="AG109" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AH109" s="43" t="s">
+      <c r="AH109" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AI109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK109" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL109" s="44" t="s">
+      <c r="AI109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK109" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL109" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="F110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD110" s="43" t="s">
+      <c r="F110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD110" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE110" s="43" t="s">
+      <c r="AE110" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF110" s="43" t="s">
+      <c r="AF110" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="AG110" s="43" t="s">
+      <c r="AG110" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="AH110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK110" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL110" s="44" t="s">
+      <c r="AH110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK110" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL110" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B111" s="43" t="s">
+      <c r="B111" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="F111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD111" s="43" t="s">
+      <c r="F111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD111" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE111" s="43" t="s">
+      <c r="AE111" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF111" s="43" t="s">
+      <c r="AF111" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AG111" s="43" t="s">
+      <c r="AG111" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="AH111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK111" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL111" s="44" t="s">
+      <c r="AH111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK111" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL111" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="43" t="s">
+      <c r="E112" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="F112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD112" s="43" t="s">
+      <c r="F112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD112" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE112" s="43" t="s">
+      <c r="AE112" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF112" s="43" t="s">
+      <c r="AF112" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="AG112" s="43" t="s">
+      <c r="AG112" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AH112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK112" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL112" s="44" t="s">
+      <c r="AH112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK112" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL112" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="113" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD113" s="43" t="s">
+      <c r="F113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD113" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AE113" s="43" t="s">
+      <c r="AE113" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF113" s="43" t="s">
+      <c r="AF113" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AG113" s="43" t="s">
+      <c r="AG113" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="AH113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK113" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL113" s="44" t="s">
+      <c r="AH113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL113" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="F114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD114" s="43" t="s">
+      <c r="F114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD114" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AE114" s="43" t="s">
+      <c r="AE114" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF114" s="43" t="s">
+      <c r="AF114" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AG114" s="43" t="s">
+      <c r="AG114" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="AH114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK114" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL114" s="44" t="s">
+      <c r="AH114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL114" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="115" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="43" t="s">
+      <c r="C115" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E115" s="43" t="s">
+      <c r="E115" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD115" s="43" t="s">
+      <c r="F115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD115" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AE115" s="43" t="s">
+      <c r="AE115" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF115" s="43" t="s">
+      <c r="AF115" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AG115" s="43" t="s">
+      <c r="AG115" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="AH115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK115" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL115" s="44" t="s">
+      <c r="AH115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK115" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL115" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -52512,10 +52633,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52535,10 +52656,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52558,10 +52679,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52581,10 +52702,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52604,10 +52725,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52627,10 +52748,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52650,10 +52771,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52673,10 +52794,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52696,10 +52817,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52711,14 +52832,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52945,21 +53064,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -52984,9 +53102,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40101_図面登録依頼画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8E5E0-8138-47D2-989B-CCA697C13E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC6078-F804-452D-80C6-3423D4482E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,18 +38,30 @@
     <sheet name="No.50~53" sheetId="27" r:id="rId23"/>
     <sheet name="No.54~55" sheetId="28" r:id="rId24"/>
     <sheet name="No.56" sheetId="29" r:id="rId25"/>
+    <sheet name="No.57" sheetId="30" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="260">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -6548,6 +6560,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6590,19 +6608,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -39882,6 +39894,789 @@
             </a:rPr>
             <a:t>画面遷移はない</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300327</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>219289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F90BED-5F17-09E7-48F6-F30FC801BA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="21093545"/>
+          <a:ext cx="11383964" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED15A47-F4C6-4CC0-B3C0-CC0B87B6F85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF68B94-3DB4-4FE0-8D34-D607F484BAC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="714375"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314614</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F4891D-11F9-40BB-9C71-4FDE0138CA65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9230014" y="3001818"/>
+          <a:ext cx="579005" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112568</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>614795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>210705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8B3ED2-5F14-4A8F-96DD-4D9EEA680B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9027968" y="3449204"/>
+          <a:ext cx="502227" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val -92324"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>297297</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551454BE-8A0C-4FAB-BE03-22847FCA9D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28415097" y="3326535"/>
+          <a:ext cx="579005" cy="297295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>202046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>597478</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04834A9-228E-481B-9456-16F19777B640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28213051" y="3773921"/>
+          <a:ext cx="502227" cy="329046"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val -92324"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>454601</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>173184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A270275A-5340-48CA-985A-6DB2CAD2C917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2532783" y="23448820"/>
+          <a:ext cx="5398944" cy="588818"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39022"/>
+            <a:gd name="adj2" fmla="val -122729"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセスログに図面登録依頼があったことを示す以下のログが出力されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],04</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF68605-C484-4B7D-A1A6-22245D84A457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A18995-7EDE-4D0E-98F7-3A37EE059649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>300328</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>219289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B7AF60-DB8F-3146-DDF0-1AFF4513D1D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="21093545"/>
+          <a:ext cx="11383964" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38965</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Speech Bubble: Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C896DCDC-129F-C06D-8CB9-5F156111F481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22898965" y="24487911"/>
+          <a:ext cx="5398944" cy="588818"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39022"/>
+            <a:gd name="adj2" fmla="val -122729"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセスログに図面登録依頼があったことを示す以下のログが出力されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>],04</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -44598,8 +45393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -44620,28 +45415,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="17"/>
       <c r="N1" s="23" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="2">
         <f>COUNTIF(N$7:N$1000,N1)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="16" t="s">
         <v>109</v>
       </c>
@@ -44660,10 +45455,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="5" t="s">
         <v>110</v>
       </c>
@@ -44683,13 +45478,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="17"/>
       <c r="N4" s="23" t="s">
         <v>114</v>
@@ -44700,20 +45495,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="19"/>
       <c r="N5" s="23" t="s">
         <v>115</v>
       </c>
       <c r="O5" s="2" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：1／実施済：56</v>
+        <v>未実施：0／実施済：57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -44726,14 +45521,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -46538,33 +47333,39 @@
       <c r="Q62" s="14"/>
     </row>
     <row r="63" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="48">
+      <c r="A63" s="50">
         <f t="shared" ref="A63" si="1">ROW()-6</f>
         <v>57</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49" t="s">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
       <c r="M63" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="N63" s="12"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="12"/>
+      <c r="N63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O63" s="13">
+        <v>45565</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="Q63" s="14"/>
     </row>
   </sheetData>
@@ -46612,6 +47413,7 @@
     <hyperlink ref="A60" location="'No.54~55'!A1" display="'No.54~55'!A1" xr:uid="{DBC406AD-C27A-4928-87B9-A8B09841A2D6}"/>
     <hyperlink ref="A61" location="'No.54~55'!A1" display="'No.54~55'!A1" xr:uid="{2C97C702-75C3-45CE-8B82-E6DAF4FC318E}"/>
     <hyperlink ref="A62" location="No.56!A1" display="No.56!A1" xr:uid="{F3E4600B-5F52-4807-A1E3-8773D93993A6}"/>
+    <hyperlink ref="A63" location="No.57!A1" display="No.57!A1" xr:uid="{11FC8EBE-69CC-419C-AFB6-FF45799CF713}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -52670,6 +53472,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD22DDF-D13D-4697-899C-23F225780C40}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20001D45-7CE0-4732-B8BB-B3AD26B201BD}">
   <dimension ref="B2:AD2"/>
@@ -52832,12 +53657,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53064,20 +53891,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53102,12 +53930,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B0D746-DCC5-4CAE-A19C-DDDF7C7FFDED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981EF3C-C00E-4E6C-B97A-ADCC9233B38B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>